--- a/biology/Botanique/Patima_guianensis/Patima_guianensis.xlsx
+++ b/biology/Botanique/Patima_guianensis/Patima_guianensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Patima guianensis est une espèce d'arbuste d'Amérique du sud, appartenant à la famille des Rubiaceae.
 </t>
@@ -511,15 +523,17 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Patima guianensis est un arbuste haut d'environ 1,5 m. Les stipules sont triangulaires, mesurant environ 5 mm de long, glabres, à apex aigu. Les feuilles ont des pétioles longs de 3-6 mm, à limbes oblanceolées, mesurant 32-50 x 10-15 cm. 
 Les inflorescences comportent 3-15 fleurs, avec des pédicelles d'environ 1 cm de long.
 Les fleurs ont un calice long de 5-7 mm, et une corolle longue d'environ 20 mm, jaune pâle, pointue en bouton. 
-Les fruits sont globuleux, d'environ 1,2 cm de diamètre, glabres, avec des calices persistants[5]. 
+Les fruits sont globuleux, d'environ 1,2 cm de diamètre, glabres, avec des calices persistants. 
 En 1953, Lemée en propose la description suivante de Patima guianensis :
 « [HOFFMANNIA] megistophylla Standl. (Patima guianensis Aubl. et peut-être Octavia sessiliflora Dec. selon N. Sandwith et G. Bremekamp). Arbrisseau ou sous-arbrisseau ; feuilles très grandes (jusqu'à, 0,42 sur 0,17-0,19), pétiolées ovales ou elliptiques-oblongues acuminées, à base aiguë, avec environ 22 paires de nervures, poilues en dessous avec poils appliqués (et non glabres selon N. Sandwith), stipules solitaires courtes persistantes ; fleurs axillaires ou sur rameaux défeuillés, solitaires ou peu nombreuses sur le même pédoncule, calice persistant glabre tronqué subentier obscurément denté, corolle jaune, à 5 lobes ovales-anondis obtus brièvement acuminés poilus en dessus, 5 étamines, ovaire à 5 loges. incomplètes, style 5-fide ; fruit bacciforme subarrondi à 5 loges, graines nombreuses très petites sur placentas saillants subcharnus bilobés. - Guy. franç. (Aublet). »
-— Albert Lemée, 1953.[6]</t>
+— Albert Lemée, 1953.</t>
         </is>
       </c>
     </row>
@@ -547,7 +561,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Patima guianensis est une espèce néotropicale représentée seulement sur le plateau des Guyanes, au Guyana, au Suriname, en Guyane, et au Brésil.
 </t>
@@ -578,7 +594,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Patima guianensis est largement méconnu.
 </t>
@@ -609,9 +627,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet en a proposé le protologue suivant[7] : 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet en a proposé le protologue suivant : 
 « PATIMA (Guianenſis) (Tabula 77.)
 Planta perennis, plures caules rectos, tubulofos, cylindraceos ; ſimplices, tripedales è radice emittens. Folia oppoſita, ovato-oblonga, acuta, glabra, integerrima, longè petiolata. Stipula brevis, acuta, intrà baſim petiolorum, non decidua. Fructus plures, ſinguli pedunculati, in axillis foliorum.
 Habitat in locis paludoſis intrà amnem Galibienſem &amp; fluvium Sinémarienſem quadraginta milliaribus a maris littore. Fructum ferebat Maio.
